--- a/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A042BB6F-26A5-4E30-8394-B9FE50536AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C4D6EB5-CE29-4632-AB2B-6D0EAED69F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{483111BA-5B8A-45EA-B6E7-11FCB0A45EF3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D3DDE8E-FF09-4C7D-AFB8-49094CCF225F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>9,03%</t>
@@ -95,7 +95,7 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>13,49%</t>
+    <t>13,34%</t>
   </si>
   <si>
     <t>No utilizo sonda u otros dispositivos</t>
@@ -104,28 +104,28 @@
     <t>53,9%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
   </si>
   <si>
     <t>56,27%</t>
   </si>
   <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>Sí, por otro</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,13%</t>
+    <t>9,26%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>5,24%</t>
   </si>
   <si>
     <t>Sí, con ayuda</t>
@@ -164,28 +164,28 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>Sí, por sí solo/a</t>
@@ -194,28 +194,25 @@
     <t>29,15%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>9,25%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,49 +224,46 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>11,05%</t>
+    <t>10,76%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
   </si>
   <si>
     <t>0%</t>
@@ -281,106 +275,106 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>17,66%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>9,31%</t>
+    <t>8,3%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>23,44%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
     <t>20,68%</t>
   </si>
   <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
+    <t>70,39%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -398,7 +392,7 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>7,0%</t>
+    <t>7,36%</t>
   </si>
   <si>
     <t>74,05%</t>
@@ -413,142 +407,142 @@
     <t>38,89%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>53,97%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>57,21%</t>
   </si>
   <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
   </si>
   <si>
     <t>55,0%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
+    <t>60,37%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -963,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4784CDA-7974-46E9-9313-C657B0067F18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A504019-CBF6-428E-A255-F8D065340D58}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1312,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -1321,13 +1315,13 @@
         <v>26858</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,13 +1336,13 @@
         <v>38903</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>191</v>
@@ -1357,13 +1351,13 @@
         <v>111733</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>252</v>
@@ -1372,18 +1366,18 @@
         <v>150636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1395,13 +1389,13 @@
         <v>666</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1410,13 +1404,13 @@
         <v>904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1425,13 +1419,13 @@
         <v>1570</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,13 +1440,13 @@
         <v>14498</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -1461,13 +1455,13 @@
         <v>17095</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -1476,13 +1470,13 @@
         <v>31594</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,10 +1494,10 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1512,13 +1506,13 @@
         <v>1417</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1527,13 +1521,13 @@
         <v>1417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,13 +1542,13 @@
         <v>3367</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1563,13 +1557,13 @@
         <v>4686</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1578,13 +1572,13 @@
         <v>8054</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,13 +1593,13 @@
         <v>9576</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1614,13 +1608,13 @@
         <v>3847</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -1629,13 +1623,13 @@
         <v>13423</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,13 +1644,13 @@
         <v>28108</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -1665,13 +1659,13 @@
         <v>27950</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -1680,18 +1674,18 @@
         <v>56058</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1706,10 +1700,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1718,13 +1712,13 @@
         <v>1285</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1733,13 +1727,13 @@
         <v>1285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,13 +1748,13 @@
         <v>1367</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1769,13 +1763,13 @@
         <v>3501</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1784,13 +1778,13 @@
         <v>4869</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,10 +1802,10 @@
         <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1823,10 +1817,10 @@
         <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1838,10 +1832,10 @@
         <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,13 +1850,13 @@
         <v>159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1874,10 +1868,10 @@
         <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1886,13 +1880,13 @@
         <v>159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,13 +1901,13 @@
         <v>4356</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1922,13 +1916,13 @@
         <v>3046</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -1937,13 +1931,13 @@
         <v>7402</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,13 +1952,13 @@
         <v>5883</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -1973,13 +1967,13 @@
         <v>7832</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -1988,13 +1982,13 @@
         <v>13715</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +2005,13 @@
         <v>2598</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -2026,13 +2020,13 @@
         <v>13857</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -2041,10 +2035,10 @@
         <v>16455</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -2062,13 +2056,13 @@
         <v>36835</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -2077,13 +2071,13 @@
         <v>84396</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -2092,13 +2086,13 @@
         <v>121231</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2107,13 @@
         <v>709</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -2128,13 +2122,13 @@
         <v>4758</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2143,13 +2137,13 @@
         <v>5467</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2158,13 @@
         <v>7479</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2179,13 +2173,13 @@
         <v>22093</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -2194,13 +2188,13 @@
         <v>29571</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +2209,13 @@
         <v>25273</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -2230,13 +2224,13 @@
         <v>22411</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -2245,13 +2239,13 @@
         <v>47683</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2260,13 @@
         <v>72894</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>260</v>
@@ -2281,13 +2275,13 @@
         <v>147515</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>371</v>
@@ -2296,18 +2290,18 @@
         <v>220408</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C4D6EB5-CE29-4632-AB2B-6D0EAED69F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3280BFC7-CB55-45B8-A11C-7EFE6A64FBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D3DDE8E-FF09-4C7D-AFB8-49094CCF225F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{751C23C5-1849-4367-AEFE-580140A14BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A504019-CBF6-428E-A255-F8D065340D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA95F64-DBC0-4909-8004-DEF07670A597}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3280BFC7-CB55-45B8-A11C-7EFE6A64FBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08972B14-6E49-4423-9BF6-8707EA52A0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{751C23C5-1849-4367-AEFE-580140A14BCF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75217900-56B4-4F82-9D12-C5F8BA81E659}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>9,03%</t>
@@ -95,7 +95,7 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>13,49%</t>
   </si>
   <si>
     <t>No utilizo sonda u otros dispositivos</t>
@@ -104,28 +104,28 @@
     <t>53,9%</t>
   </si>
   <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>56,27%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
   </si>
   <si>
     <t>Sí, por otro</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,26%</t>
+    <t>11,13%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>Sí, con ayuda</t>
@@ -164,28 +164,28 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>Sí, por sí solo/a</t>
@@ -194,25 +194,28 @@
     <t>29,15%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>9,25%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,46 +227,49 @@
     <t>2,37%</t>
   </si>
   <si>
+    <t>12,08%</t>
+  </si>
+  <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>10,76%</t>
+    <t>11,05%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
   </si>
   <si>
     <t>0%</t>
@@ -275,64 +281,64 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>17,78%</t>
+    <t>17,66%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>8,3%</t>
+    <t>9,31%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>23,44%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>33,5%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -344,13 +350,13 @@
     <t>16,41%</t>
   </si>
   <si>
-    <t>46,65%</t>
+    <t>44,7%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>32,19%</t>
+    <t>30,39%</t>
   </si>
   <si>
     <t>23,24%</t>
@@ -362,19 +368,19 @@
     <t>44,71%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -392,7 +398,7 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>7,36%</t>
+    <t>7,0%</t>
   </si>
   <si>
     <t>74,05%</t>
@@ -407,142 +413,142 @@
     <t>38,89%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>53,97%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>57,21%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
   </si>
   <si>
     <t>55,0%</t>
   </si>
   <si>
-    <t>60,37%</t>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA95F64-DBC0-4909-8004-DEF07670A597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22023897-D553-435A-A22D-F4504A402727}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1306,7 +1312,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -1315,13 +1321,13 @@
         <v>26858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,13 +1342,13 @@
         <v>38903</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>191</v>
@@ -1351,13 +1357,13 @@
         <v>111733</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>252</v>
@@ -1366,18 +1372,18 @@
         <v>150636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1389,13 +1395,13 @@
         <v>666</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1404,13 +1410,13 @@
         <v>904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1419,13 +1425,13 @@
         <v>1570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,13 +1446,13 @@
         <v>14498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -1455,13 +1461,13 @@
         <v>17095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -1470,13 +1476,13 @@
         <v>31594</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,10 +1500,10 @@
         <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1506,13 +1512,13 @@
         <v>1417</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1521,13 +1527,13 @@
         <v>1417</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,13 +1548,13 @@
         <v>3367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1557,13 +1563,13 @@
         <v>4686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1572,13 +1578,13 @@
         <v>8054</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,13 +1599,13 @@
         <v>9576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1608,13 +1614,13 @@
         <v>3847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -1623,13 +1629,13 @@
         <v>13423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,13 +1650,13 @@
         <v>28108</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -1659,13 +1665,13 @@
         <v>27950</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -1674,18 +1680,18 @@
         <v>56058</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1700,10 +1706,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1712,13 +1718,13 @@
         <v>1285</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1727,13 +1733,13 @@
         <v>1285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,13 +1754,13 @@
         <v>1367</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1763,13 +1769,13 @@
         <v>3501</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1778,13 +1784,13 @@
         <v>4869</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,10 +1808,10 @@
         <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1817,10 +1823,10 @@
         <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1832,10 +1838,10 @@
         <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1856,13 @@
         <v>159</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1868,10 +1874,10 @@
         <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1880,13 +1886,13 @@
         <v>159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1907,13 @@
         <v>4356</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1916,13 +1922,13 @@
         <v>3046</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -1931,13 +1937,13 @@
         <v>7402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,13 +1958,13 @@
         <v>5883</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -1967,13 +1973,13 @@
         <v>7832</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -1982,13 +1988,13 @@
         <v>13715</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2011,13 @@
         <v>2598</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -2020,13 +2026,13 @@
         <v>13857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -2035,10 +2041,10 @@
         <v>16455</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -2056,13 +2062,13 @@
         <v>36835</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -2071,13 +2077,13 @@
         <v>84396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -2086,13 +2092,13 @@
         <v>121231</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2113,13 @@
         <v>709</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -2122,13 +2128,13 @@
         <v>4758</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -2137,13 +2143,13 @@
         <v>5467</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2164,13 @@
         <v>7479</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2173,13 +2179,13 @@
         <v>22093</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -2188,13 +2194,13 @@
         <v>29571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2215,13 @@
         <v>25273</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -2224,13 +2230,13 @@
         <v>22411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -2239,13 +2245,13 @@
         <v>47683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,13 +2266,13 @@
         <v>72894</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>260</v>
@@ -2275,13 +2281,13 @@
         <v>147515</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>371</v>
@@ -2290,18 +2296,18 @@
         <v>220408</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08972B14-6E49-4423-9BF6-8707EA52A0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E7A1A0-87D1-41E1-A2EA-259ECF4AF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{75217900-56B4-4F82-9D12-C5F8BA81E659}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{37A8B051-6140-48D4-BDE6-A946196B6D52}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="173">
   <si>
     <t>Población según si necesita sonda u otros dispositivos y es capaz de utilizarlos en 2023 (Tasa respuesta: 4,28%)</t>
   </si>
@@ -71,151 +71,151 @@
     <t>No soy capaz de usarlo</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>No utilizo sonda u otros dispositivos</t>
   </si>
   <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>Sí, por otro</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>Sí, con ayuda</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>Sí, por sí solo/a</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,52 +224,52 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>0%</t>
@@ -278,277 +278,280 @@
     <t>4,55%</t>
   </si>
   <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -963,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22023897-D553-435A-A22D-F4504A402727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7545445A-691A-4491-8AD7-AA25BAA56E7C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1084,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>1932</v>
+        <v>1845</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1099,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>11668</v>
+        <v>10421</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1114,7 +1117,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>13600</v>
+        <v>12266</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1135,7 +1138,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>20970</v>
+        <v>19521</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1150,7 +1153,7 @@
         <v>114</v>
       </c>
       <c r="I5" s="7">
-        <v>63799</v>
+        <v>57536</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1165,7 +1168,7 @@
         <v>147</v>
       </c>
       <c r="N5" s="7">
-        <v>84769</v>
+        <v>77057</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1186,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>709</v>
+        <v>601</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1201,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>3341</v>
+        <v>2962</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1216,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>4050</v>
+        <v>3564</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1237,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3952</v>
+        <v>3430</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1252,7 +1255,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>17406</v>
+        <v>14380</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1267,7 +1270,7 @@
         <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>21358</v>
+        <v>17810</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1288,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>11340</v>
+        <v>10080</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1303,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>15518</v>
+        <v>12542</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1318,7 +1321,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>26858</v>
+        <v>22622</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1339,7 +1342,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="7">
-        <v>38903</v>
+        <v>35477</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1354,7 +1357,7 @@
         <v>191</v>
       </c>
       <c r="I9" s="7">
-        <v>111733</v>
+        <v>97842</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1369,7 +1372,7 @@
         <v>252</v>
       </c>
       <c r="N9" s="7">
-        <v>150636</v>
+        <v>133319</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1392,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1407,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>904</v>
+        <v>845</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1422,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>1570</v>
+        <v>1477</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1443,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>14498</v>
+        <v>13523</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1458,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>17095</v>
+        <v>15575</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1473,7 +1476,7 @@
         <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>31594</v>
+        <v>29097</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1509,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1417</v>
+        <v>1140</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -1524,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1417</v>
+        <v>1140</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>82</v>
@@ -1545,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3367</v>
+        <v>2987</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>84</v>
@@ -1560,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>4686</v>
+        <v>4032</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>87</v>
@@ -1575,16 +1578,16 @@
         <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>8054</v>
+        <v>7019</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,46 +1599,46 @@
         <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>9576</v>
+        <v>8882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>3847</v>
+        <v>3372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
       </c>
       <c r="N14" s="7">
-        <v>13423</v>
+        <v>12254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,7 +1650,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="7">
-        <v>28108</v>
+        <v>26024</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1662,7 +1665,7 @@
         <v>54</v>
       </c>
       <c r="I15" s="7">
-        <v>27950</v>
+        <v>24963</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1677,7 +1680,7 @@
         <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>56058</v>
+        <v>50987</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1709,37 +1712,37 @@
         <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1285</v>
+        <v>1174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1285</v>
+        <v>1174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,46 +1754,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1367</v>
+        <v>1285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>3501</v>
+        <v>3300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>4869</v>
+        <v>4585</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,7 +1814,7 @@
         <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1826,7 +1829,7 @@
         <v>78</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1841,7 +1844,7 @@
         <v>78</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,16 +1856,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1877,22 +1880,22 @@
         <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,37 +1907,37 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>4356</v>
+        <v>4067</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>3046</v>
+        <v>2763</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>7402</v>
+        <v>6830</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>127</v>
@@ -1955,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>5883</v>
+        <v>5511</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -1970,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="7">
-        <v>7832</v>
+        <v>7237</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -1985,7 +1988,7 @@
         <v>24</v>
       </c>
       <c r="N21" s="7">
-        <v>13715</v>
+        <v>12748</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2008,7 +2011,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>2598</v>
+        <v>2478</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>130</v>
@@ -2023,7 +2026,7 @@
         <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>13857</v>
+        <v>12440</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>133</v>
@@ -2038,7 +2041,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="7">
-        <v>16455</v>
+        <v>14918</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>136</v>
@@ -2047,7 +2050,7 @@
         <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,46 +2062,46 @@
         <v>55</v>
       </c>
       <c r="D23" s="7">
-        <v>36835</v>
+        <v>34330</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
       </c>
       <c r="I23" s="7">
-        <v>84396</v>
+        <v>76410</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
       </c>
       <c r="N23" s="7">
-        <v>121231</v>
+        <v>110740</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,46 +2113,46 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>709</v>
+        <v>601</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>4758</v>
+        <v>4102</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>5467</v>
+        <v>4703</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,46 +2164,46 @@
         <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>7479</v>
+        <v>6575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
       </c>
       <c r="I25" s="7">
-        <v>22093</v>
+        <v>18412</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
       </c>
       <c r="N25" s="7">
-        <v>29571</v>
+        <v>24987</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,46 +2215,46 @@
         <v>37</v>
       </c>
       <c r="D26" s="7">
-        <v>25273</v>
+        <v>23029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
       </c>
       <c r="I26" s="7">
-        <v>22411</v>
+        <v>18678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
       </c>
       <c r="N26" s="7">
-        <v>47683</v>
+        <v>41706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,7 +2266,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="7">
-        <v>72894</v>
+        <v>67012</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2278,7 +2281,7 @@
         <v>260</v>
       </c>
       <c r="I27" s="7">
-        <v>147515</v>
+        <v>130042</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2293,7 +2296,7 @@
         <v>371</v>
       </c>
       <c r="N27" s="7">
-        <v>220408</v>
+        <v>197054</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
